--- a/biology/Virologie/Closterovirus/Closterovirus.xlsx
+++ b/biology/Virologie/Closterovirus/Closterovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Closterovirus est un genre de phytovirus pathogènes appartenant à la famille des Closteroviridae, qui comprend 16 espèces acceptées par l'ICTV.
-Les virions sont filamenteux, flexueux, exceptionnellement longs, de 1250 à 2200 nm de long et de 10 à 13 nm de diamètre. Le génome est constitué d'un ARN à simple brin à polarité positive de 15,5 à 19,3 kb[2].
+Les virions sont filamenteux, flexueux, exceptionnellement longs, de 1250 à 2200 nm de long et de 10 à 13 nm de diamètre. Le génome est constitué d'un ARN à simple brin à polarité positive de 15,5 à 19,3 kb.
 Ce genre a une distribution vraisemblablement mondiale. Il comprend notamment le virus de la jaunisse de la betterave (BYV, Beet yellows virus), qui en est l'espèce-type, et le virus de la tristeza des agrumes (CTV, Citrus tristeza virus), qui sont les agents de maladies d'une grande importance économique.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (20 janvier 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (20 janvier 2021) :
 Arracacha virus 1
 Beet yellow stunt virus
 Beet yellows virus
